--- a/Final Project/database/database schema.xlsx
+++ b/Final Project/database/database schema.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>DHT11 ,humidity &amp; temperature </t>
   </si>
@@ -96,6 +96,21 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>Table Name</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>tslTable</t>
+  </si>
+  <si>
+    <t>bmpTable</t>
+  </si>
+  <si>
+    <t>dhtTable</t>
   </si>
 </sst>
 </file>
@@ -244,7 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -264,6 +279,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -299,6 +317,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -394,6 +430,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -429,6 +482,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -581,202 +651,256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:T35"/>
+  <dimension ref="B3:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C10" sqref="C10:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="42.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="42.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="17" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="13"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="12"/>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="21"/>
+      <c r="F6" s="24"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="13"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="12"/>
-      <c r="C7" s="4" t="s">
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="13"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="18"/>
-      <c r="C8" s="6" t="s">
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="19"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-    </row>
-    <row r="9" spans="2:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="11" t="s">
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" spans="2:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="13"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
-      <c r="C10" s="9" t="s">
+      <c r="E11" s="13"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="13"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
-      <c r="C11" s="9" t="s">
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="13"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
-      <c r="C12" s="9" t="s">
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="13"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
-      <c r="C13" s="9" t="s">
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="13"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="18"/>
-      <c r="C14" s="8" t="s">
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="19"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="11" t="s">
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C17" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="13"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="13"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
-      <c r="C16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="15"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
-      <c r="C17" s="9" t="s">
+      <c r="E19" s="13"/>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="13"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="15"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
-      <c r="C18" s="9" t="s">
+      <c r="E20" s="13"/>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="13"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="13"/>
-      <c r="C19" s="7" t="s">
+      <c r="E21" s="13"/>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="14"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="35" spans="19:20" x14ac:dyDescent="0.3">
-      <c r="S35" t="s">
+      <c r="E22" s="14"/>
+      <c r="F22" s="17"/>
+    </row>
+    <row r="38" spans="20:21" x14ac:dyDescent="0.3">
+      <c r="T38" t="s">
         <v>6</v>
       </c>
-      <c r="T35" t="s">
+      <c r="U38" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="E15:E19"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="E9:E14"/>
+  <mergeCells count="12">
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="E17:E22"/>
+    <mergeCell ref="F17:F22"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="E10:E16"/>
+    <mergeCell ref="F10:F16"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="C5:C9"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1"/>
-    <hyperlink ref="E15" r:id="rId2"/>
-    <hyperlink ref="E9" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId1"/>
+    <hyperlink ref="F17" r:id="rId2"/>
+    <hyperlink ref="F10" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
